--- a/dtpu_configurations/only_integer16/80mhz/mxu_18x18/timing.xlsx
+++ b/dtpu_configurations/only_integer16/80mhz/mxu_18x18/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.3288356363773346</v>
+        <v>0.10328449308872223</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.008568479679524899</v>
+        <v>0.013244960457086563</v>
       </c>
     </row>
   </sheetData>
